--- a/biology/Botanique/Gigasiphon_macrosiphon/Gigasiphon_macrosiphon.xlsx
+++ b/biology/Botanique/Gigasiphon_macrosiphon/Gigasiphon_macrosiphon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigasiphon macrosiphon est une espèce de plantes à fleurs de la famille des Fabacées présente au Kenya et en Tanzanie. L'espèce est considérée comme en danger d'extinction par l'Union internationale pour la conservation de la nature qui l'a inscrite sur sa liste des 100 espèces les plus menacées au monde, établie en 2012.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve l'espèce au Kenya (réserve des forêts de Mrima, Marenje, Gongoni et au monument national Kaya Muhaka), ainsi qu'en Tanzanie (plateau de Rondo)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve l'espèce au Kenya (réserve des forêts de Mrima, Marenje, Gongoni et au monument national Kaya Muhaka), ainsi qu'en Tanzanie (plateau de Rondo).
 </t>
         </is>
       </c>
